--- a/Documentation/BudgetDueWeek4.xlsx
+++ b/Documentation/BudgetDueWeek4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\humber.org\Home\03\0121\n01216688\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\humber.org\Home\03\0125\n01252492\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -56,19 +56,16 @@
     <t>Motor Driver</t>
   </si>
   <si>
-    <t>SN754410</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Zamtac-SN754410-SN754410NE-Half-H-16-DIP/dp/B07QFLHM1Z/ref=sr_1_6?keywords=SN754410&amp;qid=1569522378&amp;s=gateway&amp;sr=8-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Motor </t>
   </si>
   <si>
-    <t>Motor 2000 RPM for DIY Electric Toy Car for Arduino</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gikfun-Motor-Electric-Arduino-EK1291x10C/dp/B06WLL6QM5/ref=sr_1_1_sspa?keywords=motor&amp;qid=1569522471&amp;s=gateway&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzSVZJR1I0RjlUVjBCJmVuY3J5cHRlZElkPUEwMTU5NjMwMVFaTjUyUE5KT0RNQyZlbmNyeXB0ZWRBZElkPUEwNjE5ODk2MUVHTDM1WFU5WDZIWiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
+    <t>ULN2003APG</t>
+  </si>
+  <si>
+    <t>Step Motor 28BYJ-48 5VDC</t>
+  </si>
+  <si>
+    <t>Wireless Bluetooth Host</t>
   </si>
 </sst>
 </file>
@@ -147,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -165,6 +162,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>14.29</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <f>D2*C2</f>
-        <v>14.29</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3">
         <f>E2*13%</f>
-        <v>1.8576999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="G2" s="3">
         <f>E2+F2</f>
-        <v>16.1477</v>
+        <v>45.2</v>
       </c>
       <c r="H2"/>
     </row>
@@ -560,33 +558,27 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>26.99</v>
-      </c>
-      <c r="E4" s="3">
-        <v>26.99</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <f>E4*13%</f>
-        <v>3.5086999999999997</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f>E4+F4</f>
-        <v>30.498699999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
@@ -597,58 +589,68 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>14.99</v>
-      </c>
-      <c r="E6" s="3">
-        <v>14.99</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
         <f>E6*13%</f>
-        <v>1.9487000000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f>E6+F6</f>
-        <v>16.938700000000001</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="14" t="s">
-        <v>8</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10.99</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10.99</v>
+      </c>
+      <c r="F7" s="3">
+        <f>E7*13%</f>
+        <v>1.4287000000000001</v>
       </c>
       <c r="G7" s="3">
-        <f>G2+G4+G6</f>
-        <v>63.585099999999997</v>
+        <f>E7+F7</f>
+        <v>12.418700000000001</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <f>G2+G4+G7</f>
+        <v>57.618700000000004</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -670,15 +672,16 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -692,6 +695,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -704,21 +708,20 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -726,11 +729,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -742,27 +744,31 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://www.amazon.ca/Gikfun-Motor-Electric-Arduino-EK1291x10C/dp/B06WLL6QM5/ref=sr_1_1_sspa?keywords=motor&amp;qid=1569522471&amp;s=gateway&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzSVZJR1I0RjlUVjBCJmVuY3J5cHRlZElkPUEwMTU5NjMwMVFaTjUyUE5KT0RNQyZlbmNyeXB0ZWRBZElkPUEwNjE5ODk2MUVHTDM1WFU5WDZIWiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>